--- a/public/excel/import/clients.xlsx
+++ b/public/excel/import/clients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\LaravelCreativeCourse\ip_ivanov\public\excel\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46392010-B300-4FA3-BA28-AE0CE7BEDD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B3D64E-2EE5-44CF-9E02-95D7C30F0C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,42 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Наименование</t>
   </si>
   <si>
-    <t>Норма Азот</t>
-  </si>
-  <si>
-    <t>Норма Фосфор</t>
-  </si>
-  <si>
-    <t>Норма Калий</t>
-  </si>
-  <si>
-    <t>Группа культур</t>
-  </si>
-  <si>
-    <t>Район</t>
-  </si>
-  <si>
-    <t>Стоимость</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Назначение</t>
-  </si>
-  <si>
-    <t>Культура ID</t>
-  </si>
-  <si>
-    <t>Name from import</t>
-  </si>
-  <si>
-    <t>Name from import 2</t>
+    <t>Дата договора</t>
+  </si>
+  <si>
+    <t>Стоимость поставки</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
+    <t>Name from import 3</t>
+  </si>
+  <si>
+    <t>Name from import 4</t>
   </si>
 </sst>
 </file>
@@ -117,11 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,26 +385,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,31 +412,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="2">
+        <v>44608</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -466,54 +426,18 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44608</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
         <v>1</v>
       </c>
     </row>
